--- a/promice/icestats.xlsx
+++ b/promice/icestats.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,29 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au686295_uni_au_dk/Documents/Documents/GitHub/PhD/Temporal-variations-of-the-darkening-of-surface-ice-on-the-GrIS/promice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_714D05DF4A7E4E6DCFBFF49D7500109E608BAAD4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66862088-1CEC-4B4B-8013-BA415FB057B7}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_714DA6A70BF962FB31AC44277793BD32548BCF7A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB9F2D64-9B93-4ABE-8DE1-573F25CF385E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
-    <sheet name="stat" sheetId="2" r:id="rId1"/>
+    <sheet name="statPROMICE" sheetId="2" r:id="rId1"/>
+    <sheet name="statHSA" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">stat!$E$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">stat!$E$2:$E$60</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">stat!$H$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">stat!$H$2:$H$60</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">stat!$E$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">stat!$E$2:$E$60</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">stat!$H$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">stat!$H$2:$H$60</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="276">
   <si>
     <t>aws</t>
   </si>
@@ -71,9 +75,42 @@
     <t>dark_speed</t>
   </si>
   <si>
+    <t>aws</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>duration_bareice</t>
+  </si>
+  <si>
+    <t>duration_darkice</t>
+  </si>
+  <si>
+    <t>dbratio</t>
+  </si>
+  <si>
+    <t>albedo</t>
+  </si>
+  <si>
+    <t>albedoJA</t>
+  </si>
+  <si>
+    <t>dark_1stday</t>
+  </si>
+  <si>
+    <t>bare_1stday</t>
+  </si>
+  <si>
+    <t>dark_speed</t>
+  </si>
+  <si>
     <t>jar</t>
   </si>
   <si>
+    <t>jar</t>
+  </si>
+  <si>
     <t>kan_l</t>
   </si>
   <si>
@@ -86,9 +123,24 @@
     <t>kan_l</t>
   </si>
   <si>
+    <t>kan_l</t>
+  </si>
+  <si>
+    <t>kan_l</t>
+  </si>
+  <si>
+    <t>kan_l</t>
+  </si>
+  <si>
+    <t>kan_l</t>
+  </si>
+  <si>
     <t>kan_m</t>
   </si>
   <si>
+    <t>kan_m</t>
+  </si>
+  <si>
     <t>kpc_l</t>
   </si>
   <si>
@@ -101,6 +153,18 @@
     <t>kpc_l</t>
   </si>
   <si>
+    <t>kpc_l</t>
+  </si>
+  <si>
+    <t>kpc_l</t>
+  </si>
+  <si>
+    <t>kpc_l</t>
+  </si>
+  <si>
+    <t>kpc_l</t>
+  </si>
+  <si>
     <t>mit</t>
   </si>
   <si>
@@ -113,6 +177,15 @@
     <t>mit</t>
   </si>
   <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
     <t>nuk_k</t>
   </si>
   <si>
@@ -125,6 +198,18 @@
     <t>nuk_k</t>
   </si>
   <si>
+    <t>nuk_k</t>
+  </si>
+  <si>
+    <t>nuk_k</t>
+  </si>
+  <si>
+    <t>nuk_k</t>
+  </si>
+  <si>
+    <t>nuk_k</t>
+  </si>
+  <si>
     <t>nuk_l</t>
   </si>
   <si>
@@ -137,18 +222,42 @@
     <t>nuk_l</t>
   </si>
   <si>
+    <t>nuk_l</t>
+  </si>
+  <si>
+    <t>nuk_l</t>
+  </si>
+  <si>
+    <t>nuk_l</t>
+  </si>
+  <si>
+    <t>nuk_l</t>
+  </si>
+  <si>
     <t>nuk_u</t>
   </si>
   <si>
     <t>nuk_u</t>
   </si>
   <si>
+    <t>nuk_u</t>
+  </si>
+  <si>
+    <t>nuk_u</t>
+  </si>
+  <si>
     <t>nuk_uv3</t>
   </si>
   <si>
     <t>nuk_uv3</t>
   </si>
   <si>
+    <t>nuk_uv3</t>
+  </si>
+  <si>
+    <t>nuk_uv3</t>
+  </si>
+  <si>
     <t>qas_l</t>
   </si>
   <si>
@@ -161,6 +270,18 @@
     <t>qas_l</t>
   </si>
   <si>
+    <t>qas_l</t>
+  </si>
+  <si>
+    <t>qas_l</t>
+  </si>
+  <si>
+    <t>qas_l</t>
+  </si>
+  <si>
+    <t>qas_l</t>
+  </si>
+  <si>
     <t>qas_m</t>
   </si>
   <si>
@@ -173,6 +294,18 @@
     <t>qas_m</t>
   </si>
   <si>
+    <t>qas_m</t>
+  </si>
+  <si>
+    <t>qas_m</t>
+  </si>
+  <si>
+    <t>qas_m</t>
+  </si>
+  <si>
+    <t>qas_m</t>
+  </si>
+  <si>
     <t>qas_u</t>
   </si>
   <si>
@@ -185,6 +318,18 @@
     <t>qas_u</t>
   </si>
   <si>
+    <t>qas_u</t>
+  </si>
+  <si>
+    <t>qas_u</t>
+  </si>
+  <si>
+    <t>qas_u</t>
+  </si>
+  <si>
+    <t>qas_u</t>
+  </si>
+  <si>
     <t>qas_uv3</t>
   </si>
   <si>
@@ -194,9 +339,21 @@
     <t>qas_uv3</t>
   </si>
   <si>
+    <t>qas_uv3</t>
+  </si>
+  <si>
+    <t>qas_uv3</t>
+  </si>
+  <si>
+    <t>qas_uv3</t>
+  </si>
+  <si>
     <t>swc_o</t>
   </si>
   <si>
+    <t>swc_o</t>
+  </si>
+  <si>
     <t>tas_l</t>
   </si>
   <si>
@@ -206,6 +363,15 @@
     <t>tas_l</t>
   </si>
   <si>
+    <t>tas_l</t>
+  </si>
+  <si>
+    <t>tas_l</t>
+  </si>
+  <si>
+    <t>tas_l</t>
+  </si>
+  <si>
     <t>thu_l</t>
   </si>
   <si>
@@ -218,9 +384,24 @@
     <t>thu_l</t>
   </si>
   <si>
+    <t>thu_l</t>
+  </si>
+  <si>
+    <t>thu_l</t>
+  </si>
+  <si>
+    <t>thu_l</t>
+  </si>
+  <si>
+    <t>thu_l</t>
+  </si>
+  <si>
     <t>thu_l2</t>
   </si>
   <si>
+    <t>thu_l2</t>
+  </si>
+  <si>
     <t>thu_u</t>
   </si>
   <si>
@@ -230,6 +411,12 @@
     <t>thu_u</t>
   </si>
   <si>
+    <t>thu_u</t>
+  </si>
+  <si>
+    <t>thu_u</t>
+  </si>
+  <si>
     <t>thu_u2</t>
   </si>
   <si>
@@ -243,6 +430,435 @@
   </si>
   <si>
     <t>upe_u</t>
+  </si>
+  <si>
+    <t>upe_u</t>
+  </si>
+  <si>
+    <t>upe_u</t>
+  </si>
+  <si>
+    <t>upe_u</t>
+  </si>
+  <si>
+    <t>upe_u</t>
+  </si>
+  <si>
+    <t>zak_uv3</t>
+  </si>
+  <si>
+    <t>zak_uv3</t>
+  </si>
+  <si>
+    <t>aws</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>duration_bareice</t>
+  </si>
+  <si>
+    <t>duration_darkice</t>
+  </si>
+  <si>
+    <t>dbratio</t>
+  </si>
+  <si>
+    <t>albedo</t>
+  </si>
+  <si>
+    <t>albedoJA</t>
+  </si>
+  <si>
+    <t>dark_1stday</t>
+  </si>
+  <si>
+    <t>bare_1stday</t>
+  </si>
+  <si>
+    <t>dark_speed</t>
+  </si>
+  <si>
+    <t>aws</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>duration_bareice</t>
+  </si>
+  <si>
+    <t>duration_darkice</t>
+  </si>
+  <si>
+    <t>dbratio</t>
+  </si>
+  <si>
+    <t>albedo</t>
+  </si>
+  <si>
+    <t>albedoJA</t>
+  </si>
+  <si>
+    <t>dark_1stday</t>
+  </si>
+  <si>
+    <t>bare_1stday</t>
+  </si>
+  <si>
+    <t>dark_speed</t>
+  </si>
+  <si>
+    <t>jar</t>
+  </si>
+  <si>
+    <t>jar</t>
+  </si>
+  <si>
+    <t>kan_l</t>
+  </si>
+  <si>
+    <t>kan_l</t>
+  </si>
+  <si>
+    <t>kan_l</t>
+  </si>
+  <si>
+    <t>kan_l</t>
+  </si>
+  <si>
+    <t>kan_l</t>
+  </si>
+  <si>
+    <t>kan_l</t>
+  </si>
+  <si>
+    <t>kan_l</t>
+  </si>
+  <si>
+    <t>kan_l</t>
+  </si>
+  <si>
+    <t>kan_m</t>
+  </si>
+  <si>
+    <t>kan_m</t>
+  </si>
+  <si>
+    <t>kpc_l</t>
+  </si>
+  <si>
+    <t>kpc_l</t>
+  </si>
+  <si>
+    <t>kpc_l</t>
+  </si>
+  <si>
+    <t>kpc_l</t>
+  </si>
+  <si>
+    <t>kpc_l</t>
+  </si>
+  <si>
+    <t>kpc_l</t>
+  </si>
+  <si>
+    <t>kpc_l</t>
+  </si>
+  <si>
+    <t>kpc_l</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>mit</t>
+  </si>
+  <si>
+    <t>nuk_k</t>
+  </si>
+  <si>
+    <t>nuk_k</t>
+  </si>
+  <si>
+    <t>nuk_k</t>
+  </si>
+  <si>
+    <t>nuk_k</t>
+  </si>
+  <si>
+    <t>nuk_k</t>
+  </si>
+  <si>
+    <t>nuk_k</t>
+  </si>
+  <si>
+    <t>nuk_k</t>
+  </si>
+  <si>
+    <t>nuk_k</t>
+  </si>
+  <si>
+    <t>nuk_l</t>
+  </si>
+  <si>
+    <t>nuk_l</t>
+  </si>
+  <si>
+    <t>nuk_l</t>
+  </si>
+  <si>
+    <t>nuk_l</t>
+  </si>
+  <si>
+    <t>nuk_l</t>
+  </si>
+  <si>
+    <t>nuk_l</t>
+  </si>
+  <si>
+    <t>nuk_l</t>
+  </si>
+  <si>
+    <t>nuk_l</t>
+  </si>
+  <si>
+    <t>nuk_u</t>
+  </si>
+  <si>
+    <t>nuk_u</t>
+  </si>
+  <si>
+    <t>nuk_u</t>
+  </si>
+  <si>
+    <t>nuk_u</t>
+  </si>
+  <si>
+    <t>nuk_uv3</t>
+  </si>
+  <si>
+    <t>nuk_uv3</t>
+  </si>
+  <si>
+    <t>nuk_uv3</t>
+  </si>
+  <si>
+    <t>nuk_uv3</t>
+  </si>
+  <si>
+    <t>qas_l</t>
+  </si>
+  <si>
+    <t>qas_l</t>
+  </si>
+  <si>
+    <t>qas_l</t>
+  </si>
+  <si>
+    <t>qas_l</t>
+  </si>
+  <si>
+    <t>qas_l</t>
+  </si>
+  <si>
+    <t>qas_l</t>
+  </si>
+  <si>
+    <t>qas_l</t>
+  </si>
+  <si>
+    <t>qas_l</t>
+  </si>
+  <si>
+    <t>qas_m</t>
+  </si>
+  <si>
+    <t>qas_m</t>
+  </si>
+  <si>
+    <t>qas_m</t>
+  </si>
+  <si>
+    <t>qas_m</t>
+  </si>
+  <si>
+    <t>qas_m</t>
+  </si>
+  <si>
+    <t>qas_m</t>
+  </si>
+  <si>
+    <t>qas_m</t>
+  </si>
+  <si>
+    <t>qas_m</t>
+  </si>
+  <si>
+    <t>qas_u</t>
+  </si>
+  <si>
+    <t>qas_u</t>
+  </si>
+  <si>
+    <t>qas_u</t>
+  </si>
+  <si>
+    <t>qas_u</t>
+  </si>
+  <si>
+    <t>qas_u</t>
+  </si>
+  <si>
+    <t>qas_u</t>
+  </si>
+  <si>
+    <t>qas_u</t>
+  </si>
+  <si>
+    <t>qas_u</t>
+  </si>
+  <si>
+    <t>qas_uv3</t>
+  </si>
+  <si>
+    <t>qas_uv3</t>
+  </si>
+  <si>
+    <t>qas_uv3</t>
+  </si>
+  <si>
+    <t>qas_uv3</t>
+  </si>
+  <si>
+    <t>qas_uv3</t>
+  </si>
+  <si>
+    <t>qas_uv3</t>
+  </si>
+  <si>
+    <t>swc_o</t>
+  </si>
+  <si>
+    <t>swc_o</t>
+  </si>
+  <si>
+    <t>tas_l</t>
+  </si>
+  <si>
+    <t>tas_l</t>
+  </si>
+  <si>
+    <t>tas_l</t>
+  </si>
+  <si>
+    <t>tas_l</t>
+  </si>
+  <si>
+    <t>tas_l</t>
+  </si>
+  <si>
+    <t>tas_l</t>
+  </si>
+  <si>
+    <t>thu_l</t>
+  </si>
+  <si>
+    <t>thu_l</t>
+  </si>
+  <si>
+    <t>thu_l</t>
+  </si>
+  <si>
+    <t>thu_l</t>
+  </si>
+  <si>
+    <t>thu_l</t>
+  </si>
+  <si>
+    <t>thu_l</t>
+  </si>
+  <si>
+    <t>thu_l</t>
+  </si>
+  <si>
+    <t>thu_l</t>
+  </si>
+  <si>
+    <t>thu_l2</t>
+  </si>
+  <si>
+    <t>thu_l2</t>
+  </si>
+  <si>
+    <t>thu_u</t>
+  </si>
+  <si>
+    <t>thu_u</t>
+  </si>
+  <si>
+    <t>thu_u</t>
+  </si>
+  <si>
+    <t>thu_u</t>
+  </si>
+  <si>
+    <t>thu_u</t>
+  </si>
+  <si>
+    <t>thu_u2</t>
+  </si>
+  <si>
+    <t>upe_u</t>
+  </si>
+  <si>
+    <t>upe_u</t>
+  </si>
+  <si>
+    <t>upe_u</t>
+  </si>
+  <si>
+    <t>upe_u</t>
+  </si>
+  <si>
+    <t>upe_u</t>
+  </si>
+  <si>
+    <t>upe_u</t>
+  </si>
+  <si>
+    <t>upe_u</t>
+  </si>
+  <si>
+    <t>upe_u</t>
+  </si>
+  <si>
+    <t>zak_uv3</t>
   </si>
   <si>
     <t>zak_uv3</t>
@@ -252,7 +868,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -287,7 +903,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,7 +976,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>stat!$I$1</c:f>
+              <c:f>statPROMICE!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -391,73 +1007,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.23946276985647064"/>
-                  <c:y val="0.15469488188976369"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-DK"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>stat!$G$2:$G$60</c:f>
+              <c:f>statPROMICE!$G$2:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
@@ -643,7 +1195,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>stat!$I$2:$I$60</c:f>
+              <c:f>statPROMICE!$I$2:$I$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="59"/>
@@ -830,7 +1382,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CEA3-4F14-B8B1-402FFAF4E1C8}"/>
+              <c16:uniqueId val="{00000000-EDFD-46AB-8DDE-B172F54ECB24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -842,11 +1394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1322401440"/>
-        <c:axId val="1322400192"/>
+        <c:axId val="1402854815"/>
+        <c:axId val="1402853151"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1322401440"/>
+        <c:axId val="1402854815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,12 +1455,12 @@
             <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1322400192"/>
+        <c:crossAx val="1402853151"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1322400192"/>
+        <c:axId val="1402853151"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -965,7 +1517,7 @@
             <a:endParaRPr lang="en-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1322401440"/>
+        <c:crossAx val="1402854815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1021,63 +1573,1348 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{42229161-88C0-4CE1-B670-47285B89792E}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>year</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{4C7C61DD-F4F8-4F06-A1C4-CBFE11C8968C}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
-              <cx:v>dbratio</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statPROMICE!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>albedo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>statPROMICE!$G$2:$G$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>statPROMICE!$I$2:$I$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>0.60725586062767645</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54567376070650653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59874545084776332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60182034274241236</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56177408666100248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59052477069057352</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41469149449981835</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32664391690365829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3362108447565692</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.406760465116279</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41151559211159211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5929850917843541</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49779331873783705</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48109374999999993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.45681815184310642</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.51055215124094355</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51390226186329635</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5310555555555555</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.30390545722333223</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.33375500721500723</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39353324782230509</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.31513214484292462</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72013483346081009</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.61140457702020201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63549471508637156</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.58618219870538191</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.23345980454898638</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.31991819941215427</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.21928705432090678</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.19188933688933693</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40022107527263262</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52894283396021091</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.61594578186289439</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.44905463525604822</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.51631292711598742</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.63609096190239645</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.50688355341857405</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.53976745244586766</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.60556087454212459</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.58693003694581269</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.62726418419187646</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.68846548458485957</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.3324555555555555</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.40202492673992679</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.46906226415094343</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45915615748763705</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.56218762154813784</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.59203376718478296</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.45167659574468083</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.63592134831460667</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.61466484374999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.69837667390302016</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.64893214285714285</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.55509935897435903</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.47722825279378311</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.66822206105169346</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.65654285714285732</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.68745441176470601</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.41604701396098454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C41D-4728-987F-705D834F5E9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="799716015"/>
+        <c:axId val="799715183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="799716015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="799715183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="799715183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="799716015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>statHSA!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>albedo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>statHSA!$D$2:$D$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>statHSA!$F$2:$F$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>0.5409615017107744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48130520011280103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52686343555527204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54643180529497781</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53225887921851678</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47870948916645478</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44290274830157877</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46500610292956873</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48880595565050672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.49905465722957976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.38763190268538905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.47938476371530986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.46324925765663394</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45489572390666749</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46192434903414298</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50234377399262586</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.48283723793774846</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.39063455096368827</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39910245562462981</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45268246009600666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.37664060909425229</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5187251765822728</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54769540440887221</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.57846367076337335</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.56053047374784948</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24682539576618512</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27531195445562873</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27752434810536164</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.25865018601334522</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.39661016072427602</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.35878510717254802</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.41565709094655606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.4695284923146702</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.4160753667267536</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.44579199955292331</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.54770190148124664</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.49211546893913166</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.4638630968366565</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.54770190148124664</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.49211546893913166</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.57154980468470618</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.33990156813644706</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.34334871102631415</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.33598907301196063</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.41392221707978599</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.48351146108973098</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.56023800779741917</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.45164802850429236</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.51063453785873159</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.54742814052012301</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.51063453785873159</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.49049912349141184</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.5958687093779691</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.59490206205001128</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.56701908167468706</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.46078444373209243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E149-4691-B1FE-DE36B3A8220F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="791188719"/>
+        <c:axId val="791192047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="791188719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791192047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="791192047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="791188719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1121,6 +2958,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1677,7 +3554,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1688,7 +3565,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -1704,14 +3581,14 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -1734,7 +3611,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -1742,11 +3619,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -1771,59 +3648,42 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1832,8 +3692,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -1841,12 +3703,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -1859,10 +3718,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1881,38 +3740,41 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1961,6 +3823,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -1992,8 +3860,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2011,8 +3879,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2048,7 +3916,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -2076,18 +3944,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -2097,9 +3954,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -2115,7 +3975,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2131,7 +3991,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2145,26 +4005,27 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2178,7 +4039,18 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -2187,31 +4059,553 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>234315</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>6667</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>79057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>253365</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>35242</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>105727</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{096537AF-1958-5F1B-A7E8-8500416B5299}"/>
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D9BBDF-7455-A19F-D6E3-6B7D8865908F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2231,80 +4625,79 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="Chart 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423948E0-23B4-F5D8-11B6-2E2DE052899C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6629400" y="2205037"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-DK" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E0A76D-C4D8-1DDD-CD47-E95B4ED1A5E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>377336</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>13188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>413970</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>89388</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45418A1D-8664-9153-F189-747997435D13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2609,95 +5002,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="1" sqref="E1:E1048576 H1:H1048576"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="I1" activeCellId="1" sqref="G1:G1048576 I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="7.93359375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.37890625" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="5.15625" customWidth="true"/>
+    <col min="6" max="6" width="15.046875" customWidth="true"/>
+    <col min="8" max="8" width="13.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="15.7109375" customWidth="true"/>
+    <col min="13" max="13" width="10.48828125" customWidth="true"/>
+    <col min="7" max="7" width="14.93359375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="0">
         <v>69.492211567774589</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>-49.720085728440033</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0">
         <v>909.3872457075089</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0">
         <v>2022</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0">
         <v>47</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0">
         <v>25</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0">
         <v>0.53191489361702127</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>0.60725586062767645</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="0">
         <v>0.57990922606515349</v>
       </c>
       <c r="K2" s="1">
@@ -2706,39 +5101,39 @@
       <c r="L2" s="1">
         <v>44756</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="0">
         <v>67.09468451047465</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>-49.957723679998409</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="0">
         <v>652.60297279678423</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0">
         <v>2019</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0">
         <v>99</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="0">
         <v>22</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="0">
         <v>0.22222222222222221</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>0.54567376070650653</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="0">
         <v>0.48360389415244254</v>
       </c>
       <c r="K3" s="1">
@@ -2747,39 +5142,39 @@
       <c r="L3" s="1">
         <v>43617</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="0">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="0">
         <v>67.094405256375069</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>-49.959939213006557</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="0">
         <v>645.17019648869643</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0">
         <v>2020</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0">
         <v>86</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="0">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>1.1627906976744186E-2</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="0">
+        <v>0.011627906976744186</v>
+      </c>
+      <c r="I4" s="0">
         <v>0.59874545084776332</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="0">
         <v>0.52717901392961874</v>
       </c>
       <c r="K4" s="1">
@@ -2788,39 +5183,39 @@
       <c r="L4" s="1">
         <v>44001</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="0">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="0">
         <v>67.09412903692801</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>-49.962355021870323</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="0">
         <v>640.2983504109734</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0">
         <v>2021</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0">
         <v>83</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="0">
         <v>4</v>
       </c>
-      <c r="H5">
-        <v>4.8192771084337352E-2</v>
-      </c>
-      <c r="I5">
+      <c r="H5" s="0">
+        <v>0.048192771084337352</v>
+      </c>
+      <c r="I5" s="0">
         <v>0.60182034274241236</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="0">
         <v>0.51313526352231997</v>
       </c>
       <c r="K5" s="1">
@@ -2829,39 +5224,39 @@
       <c r="L5" s="1">
         <v>44385</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" s="0">
         <v>67.093874188911045</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>-49.964493404613357</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="0">
         <v>636.18912696337929</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0">
         <v>2022</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0">
         <v>93</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="0">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>1.0752688172043012E-2</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="0">
+        <v>0.010752688172043012</v>
+      </c>
+      <c r="I6" s="0">
         <v>0.56177408666100248</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="0">
         <v>0.52257409579667646</v>
       </c>
       <c r="K6" s="1">
@@ -2870,39 +5265,39 @@
       <c r="L6" s="1">
         <v>44736</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="0">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="0">
         <v>67.067403538718025</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>-48.842127998024658</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="0">
         <v>1267.4984944527948</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0">
         <v>2019</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0">
         <v>67</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="0">
         <v>42</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="0">
         <v>0.62686567164179108</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="0">
         <v>0.59052477069057352</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="0">
         <v>0.50872920589267356</v>
       </c>
       <c r="K7" s="1">
@@ -2911,39 +5306,39 @@
       <c r="L7" s="1">
         <v>43630</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="0">
         <v>79.910866850424298</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>-24.081854746183364</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="0">
         <v>366.15491531038407</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0">
         <v>2019</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0">
         <v>76</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="0">
         <v>60</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="0">
         <v>0.78947368421052633</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="0">
         <v>0.41469149449981835</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="0">
         <v>0.32930623919184265</v>
       </c>
       <c r="K8" s="1">
@@ -2952,39 +5347,39 @@
       <c r="L8" s="1">
         <v>43628</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="0">
         <v>79.910838456990362</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>-24.081511007235484</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="0">
         <v>364.90291156002365</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0">
         <v>2020</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0">
         <v>87</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="0">
         <v>75</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="0">
         <v>0.86206896551724133</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="0">
         <v>0.32664391690365829</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="0">
         <v>0.28139600349455612</v>
       </c>
       <c r="K9" s="1">
@@ -2993,39 +5388,39 @@
       <c r="L9" s="1">
         <v>43983</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="0">
         <v>79.910818979866875</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>-24.081210473947941</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="0">
         <v>363.42745516005459</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="0">
         <v>2021</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="0">
         <v>88</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="0">
         <v>77</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="0">
         <v>0.875</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="0">
         <v>0.3362108447565692</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="0">
         <v>0.29410767640405572</v>
       </c>
       <c r="K10" s="1">
@@ -3034,39 +5429,39 @@
       <c r="L10" s="1">
         <v>44348</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="0">
         <v>79.91080612790698</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>-24.080935773255813</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="0">
         <v>363.0941860465116</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="0">
         <v>2022</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="0">
         <v>86</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="0">
         <v>57</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="0">
         <v>0.66279069767441856</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="0">
         <v>0.406760465116279</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="0">
         <v>0.33507589285714284</v>
       </c>
       <c r="K11" s="1">
@@ -3075,39 +5470,39 @@
       <c r="L11" s="1">
         <v>44713</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="0">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="0">
         <v>65.6921314362028</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>-37.828664013860624</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="0">
         <v>437.25738197450698</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="0">
         <v>2019</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="0">
         <v>88</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="0">
         <v>74</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="0">
         <v>0.84090909090909094</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="0">
         <v>0.41151559211159211</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="0">
         <v>0.31925108248382433</v>
       </c>
       <c r="K12" s="1">
@@ -3116,39 +5511,39 @@
       <c r="L12" s="1">
         <v>43650</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="0">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="0">
         <v>65.692088055517999</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>-37.828918584181388</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="0">
         <v>435.70080813994747</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="0">
         <v>2020</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="0">
         <v>70</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="0">
         <v>35</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="0">
         <v>0.5</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="0">
         <v>0.5929850917843541</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="0">
         <v>0.47395411005213417</v>
       </c>
       <c r="K13" s="1">
@@ -3157,39 +5552,39 @@
       <c r="L13" s="1">
         <v>44026</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="0">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="0">
         <v>65.692044970482343</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>-41.152267359927258</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="0">
         <v>434.78723287925123</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="0">
         <v>2021</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="0">
         <v>73</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="0">
         <v>48</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="0">
         <v>0.65753424657534243</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="0">
         <v>0.49779331873783705</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="0">
         <v>0.40844722873900302</v>
       </c>
       <c r="K14" s="1">
@@ -3198,39 +5593,39 @@
       <c r="L14" s="1">
         <v>44390</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="0">
         <v>65.691979669642848</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <v>-37.829526937500006</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="0">
         <v>432.6941964285715</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="0">
         <v>2022</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="0">
         <v>98</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="0">
         <v>57</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="0">
         <v>0.58163265306122447</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="0">
         <v>0.48109374999999993</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="0">
         <v>0.43752096774193555</v>
       </c>
       <c r="K15" s="1">
@@ -3239,39 +5634,39 @@
       <c r="L15" s="1">
         <v>44758</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="0">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="0">
         <v>64.162273903684252</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>-51.358674422162537</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="0">
         <v>707.0044367375051</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="0">
         <v>2019</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="0">
         <v>84</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="0">
         <v>67</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="0">
         <v>0.79761904761904767</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="0">
         <v>0.45681815184310642</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="0">
         <v>0.32416063422240848</v>
       </c>
       <c r="K16" s="1">
@@ -3280,39 +5675,39 @@
       <c r="L16" s="1">
         <v>43630</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="0">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="0">
         <v>64.162276781223099</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>-51.358677647495398</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="0">
         <v>705.17578248963832</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="0">
         <v>2020</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="0">
         <v>82</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="0">
         <v>55</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="0">
         <v>0.67073170731707321</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="0">
         <v>0.51055215124094355</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="0">
         <v>0.41973352948574721</v>
       </c>
       <c r="K17" s="1">
@@ -3321,39 +5716,39 @@
       <c r="L17" s="1">
         <v>44023</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="0">
         <v>64.162281819282313</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>-51.358672725682524</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="0">
         <v>704.87765790084757</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="0">
         <v>2021</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="0">
         <v>62</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="0">
         <v>37</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="0">
         <v>0.59677419354838712</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="0">
         <v>0.51390226186329635</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="0">
         <v>0.42436360117465383</v>
       </c>
       <c r="K18" s="1">
@@ -3362,39 +5757,39 @@
       <c r="L18" s="1">
         <v>44392</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="0">
         <v>64.162281476851845</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>-51.358672819444443</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="0">
         <v>704.10416666666652</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="0">
         <v>2022</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="0">
         <v>78</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="0">
         <v>46</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="0">
         <v>0.58974358974358976</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="0">
         <v>0.5310555555555555</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="0">
         <v>0.48998392857142858</v>
       </c>
       <c r="K19" s="1">
@@ -3403,39 +5798,39 @@
       <c r="L19" s="1">
         <v>44760</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="0">
         <v>64.48299584204797</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <v>-49.542431832361778</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="0">
         <v>519.66971492396499</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="0">
         <v>2019</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="0">
         <v>117</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="0">
         <v>110</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="0">
         <v>0.94017094017094016</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="0">
         <v>0.30390545722333223</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="0">
         <v>0.2641268642379126</v>
       </c>
       <c r="K20" s="1">
@@ -3444,39 +5839,39 @@
       <c r="L20" s="1">
         <v>43617</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="0">
         <v>64.483269250830574</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <v>-49.544944619365559</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="0">
         <v>515.92604394467094</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="0">
         <v>2020</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="0">
         <v>111</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="0">
         <v>99</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="0">
         <v>0.89189189189189189</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="0">
         <v>0.33375500721500723</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="0">
         <v>0.23658082350445253</v>
       </c>
       <c r="K21" s="1">
@@ -3485,39 +5880,39 @@
       <c r="L21" s="1">
         <v>43983</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22">
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="0">
         <v>64.483559691093348</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0">
         <v>-49.54742272670962</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="0">
         <v>512.02192445987532</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="0">
         <v>2021</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="0">
         <v>105</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="0">
         <v>97</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="0">
         <v>0.92380952380952386</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="0">
         <v>0.39353324782230509</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="0">
         <v>0.30972969841090814</v>
       </c>
       <c r="K22" s="1">
@@ -3526,39 +5921,39 @@
       <c r="L22" s="1">
         <v>44348</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23">
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="0">
         <v>64.483808543772597</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0">
         <v>-49.549929702474287</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="0">
         <v>506.18354740061164</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="0">
         <v>2022</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="0">
         <v>108</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="0">
         <v>102</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="0">
         <v>0.94444444444444442</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="0">
         <v>0.31513214484292462</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="0">
         <v>0.29172062561094819</v>
       </c>
       <c r="K23" s="1">
@@ -3567,39 +5962,39 @@
       <c r="L23" s="1">
         <v>44713</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24">
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="0">
         <v>64.510043979586726</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0">
         <v>-49.275263863633668</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="0">
         <v>1119.1644458796413</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="0">
         <v>2019</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="0">
         <v>22</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="0">
         <v>1</v>
       </c>
-      <c r="H24">
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="I24">
+      <c r="H24" s="0">
+        <v>0.045454545454545456</v>
+      </c>
+      <c r="I24" s="0">
         <v>0.72013483346081009</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="0">
         <v>0.76809240469208229</v>
       </c>
       <c r="K24" s="1">
@@ -3608,39 +6003,39 @@
       <c r="L24" s="1">
         <v>43664</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25">
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="0">
         <v>64.509369000000021</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>-49.281126999999977</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="0">
         <v>1122.6024999999997</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="0">
         <v>2022</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="0">
         <v>45</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="0">
         <v>8</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="0">
         <v>0.17777777777777778</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="0">
         <v>0.61140457702020201</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="0">
         <v>0.5310471565656566</v>
       </c>
       <c r="K25" s="1">
@@ -3649,39 +6044,39 @@
       <c r="L25" s="1">
         <v>44743</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="0">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26">
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="0">
         <v>64.502898084972671</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <v>-49.270747062568311</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="0">
         <v>1119.2427455647396</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="0">
         <v>2021</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="0">
         <v>57</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="0">
         <v>21</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="0">
         <v>0.36842105263157893</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="0">
         <v>0.63549471508637156</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="0">
         <v>0.55455302158956177</v>
       </c>
       <c r="K26" s="1">
@@ -3690,39 +6085,39 @@
       <c r="L26" s="1">
         <v>44388</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="0">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27">
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="0">
         <v>64.503218316214074</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <v>-49.272207012849265</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="0">
         <v>1117.9315072561092</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="0">
         <v>2022</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="0">
         <v>77</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="0">
         <v>26</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="0">
         <v>0.33766233766233766</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="0">
         <v>0.58618219870538191</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="0">
         <v>0.53311311200590328</v>
       </c>
       <c r="K27" s="1">
@@ -3731,39 +6126,39 @@
       <c r="L27" s="1">
         <v>44743</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="0">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28">
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="0">
         <v>61.029555586361525</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <v>-46.847923141315235</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="0">
         <v>260.82178816133364</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="0">
         <v>2019</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="0">
         <v>109</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="0">
         <v>108</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="0">
         <v>0.99082568807339455</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="0">
         <v>0.23345980454898638</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="0">
         <v>0.20819781904798298</v>
       </c>
       <c r="K28" s="1">
@@ -3772,39 +6167,39 @@
       <c r="L28" s="1">
         <v>43617</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29">
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="0">
         <v>61.030598859887519</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>-46.849637432634594</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="0">
         <v>255.70848268989661</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="0">
         <v>2020</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="0">
         <v>112</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="0">
         <v>106</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="0">
         <v>0.9464285714285714</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="0">
         <v>0.31991819941215427</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="0">
         <v>0.2482748977680026</v>
       </c>
       <c r="K29" s="1">
@@ -3813,39 +6208,39 @@
       <c r="L29" s="1">
         <v>43983</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30">
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="0">
         <v>61.030536720871972</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>-46.849683817198148</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="0">
         <v>250.97699824310479</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="0">
         <v>2021</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="0">
         <v>122</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="0">
         <v>120</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="0">
         <v>0.98360655737704916</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="0">
         <v>0.21928705432090678</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="0">
         <v>0.19576454288542997</v>
       </c>
       <c r="K30" s="1">
@@ -3854,39 +6249,39 @@
       <c r="L30" s="1">
         <v>44348</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31">
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" s="0">
         <v>61.03048301699566</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0">
         <v>-46.849694025934674</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="0">
         <v>248.06531027531028</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="0">
         <v>2022</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="0">
         <v>111</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="0">
         <v>111</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="0">
         <v>1</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="0">
         <v>0.19188933688933693</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="0">
         <v>0.17788872596937111</v>
       </c>
       <c r="K31" s="1">
@@ -3895,39 +6290,39 @@
       <c r="L31" s="1">
         <v>44713</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32">
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="0">
         <v>61.099039812706977</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0">
         <v>-46.833469708246987</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="0">
         <v>615.99814364369684</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="0">
         <v>2019</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="0">
         <v>104</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="0">
         <v>72</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="0">
         <v>0.69230769230769229</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="0">
         <v>0.40022107527263262</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="0">
         <v>0.24663761997858774</v>
       </c>
       <c r="K32" s="1">
@@ -3936,39 +6331,39 @@
       <c r="L32" s="1">
         <v>43640</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="0">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33">
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="0">
         <v>61.098788066525323</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0">
         <v>-46.833519095814708</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="0">
         <v>612.4559417062901</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="0">
         <v>2020</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="0">
         <v>71</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="0">
         <v>65</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="0">
         <v>0.91549295774647887</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="0">
         <v>0.52894283396021091</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="0">
         <v>0.34611124592701209</v>
       </c>
       <c r="K33" s="1">
@@ -3977,39 +6372,39 @@
       <c r="L33" s="1">
         <v>44019</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34">
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="0">
         <v>61.098439976892656</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0">
         <v>-46.833689439480828</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="0">
         <v>609.2095087189806</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="0">
         <v>2021</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="0">
         <v>38</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="0">
         <v>17</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="0">
         <v>0.44736842105263158</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="0">
         <v>0.61594578186289439</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="0">
         <v>0.73520989601901376</v>
       </c>
       <c r="K34" s="1">
@@ -4018,39 +6413,39 @@
       <c r="L34" s="1">
         <v>44439</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="0">
+        <v>61.098319503673871</v>
+      </c>
+      <c r="C35" s="0">
+        <v>-46.833457101918555</v>
+      </c>
+      <c r="D35" s="0">
+        <v>594.18769860574218</v>
+      </c>
+      <c r="E35" s="0">
+        <v>2022</v>
+      </c>
+      <c r="F35" s="0">
+        <v>80</v>
+      </c>
+      <c r="G35" s="0">
         <v>46</v>
       </c>
-      <c r="B35">
-        <v>61.098319503673871</v>
-      </c>
-      <c r="C35">
-        <v>-46.833457101918555</v>
-      </c>
-      <c r="D35">
-        <v>594.18769860574218</v>
-      </c>
-      <c r="E35">
-        <v>2022</v>
-      </c>
-      <c r="F35">
-        <v>80</v>
-      </c>
-      <c r="G35">
-        <v>46</v>
-      </c>
-      <c r="H35">
+      <c r="H35" s="0">
         <v>0.57499999999999996</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="0">
         <v>0.44905463525604822</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="0">
         <v>0.3503324742743596</v>
       </c>
       <c r="K35" s="1">
@@ -4059,39 +6454,39 @@
       <c r="L35" s="1">
         <v>44741</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="0">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36">
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="0">
         <v>61.172487954615093</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0">
         <v>-46.820484342872696</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="0">
         <v>890.27014498432607</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="0">
         <v>2019</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="0">
         <v>78</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="0">
         <v>48</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="0">
         <v>0.61538461538461542</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="0">
         <v>0.51631292711598742</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="0">
         <v>0.41364951612903228</v>
       </c>
       <c r="K36" s="1">
@@ -4100,39 +6495,39 @@
       <c r="L36" s="1">
         <v>43663</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="0">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37">
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="0">
         <v>61.17365479446633</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0">
         <v>-46.821128673336418</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="0">
         <v>887.51130428997226</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="0">
         <v>2020</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="0">
         <v>45</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="0">
         <v>24</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="0">
         <v>0.53333333333333333</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="0">
         <v>0.63609096190239645</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="0">
         <v>0.55831547572499185</v>
       </c>
       <c r="K37" s="1">
@@ -4141,39 +6536,39 @@
       <c r="L37" s="1">
         <v>44055</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38">
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="0">
         <v>61.173250885070232</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0">
         <v>-46.821589522803833</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="0">
         <v>886.71284388705863</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="0">
         <v>2021</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="0">
         <v>80</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="0">
         <v>51</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="0">
         <v>0.63749999999999996</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="0">
         <v>0.50688355341857405</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="0">
         <v>0.52127038843772711</v>
       </c>
       <c r="K38" s="1">
@@ -4182,39 +6577,39 @@
       <c r="L38" s="1">
         <v>44348</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39">
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" s="0">
         <v>61.172800514514257</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0">
         <v>-46.821999776225901</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="0">
         <v>885.77288959800114</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="0">
         <v>2022</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="0">
         <v>73</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="0">
         <v>34</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="0">
         <v>0.46575342465753422</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="0">
         <v>0.53976745244586766</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="0">
         <v>0.55789881212873138</v>
       </c>
       <c r="K39" s="1">
@@ -4223,39 +6618,39 @@
       <c r="L39" s="1">
         <v>44763</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="0">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40">
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="0">
         <v>61.173549116453003</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0">
         <v>-46.820824645299155</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="0">
         <v>887.2221306471306</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="0">
         <v>2020</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="0">
         <v>15</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="0">
         <v>10</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="0">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="0">
         <v>0.60556087454212459</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="0">
         <v>0.28309190476190477</v>
       </c>
       <c r="K40" s="1">
@@ -4264,77 +6659,78 @@
       <c r="L40" s="1">
         <v>44072</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41">
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" s="0">
         <v>61.173115289709898</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0">
         <v>-46.821387558825947</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="0">
         <v>884.09471811713195</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="0">
         <v>2021</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="0">
         <v>16</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="0">
         <v>14</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="0">
         <v>0.875</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="0">
         <v>0.58693003694581269</v>
       </c>
+      <c r="J41" s="0"/>
       <c r="K41" s="1">
         <v>44440</v>
       </c>
       <c r="L41" s="1">
         <v>44440</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42">
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="0">
         <v>61.172752078161658</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0">
         <v>-46.821802940923</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="0">
         <v>886.34852915704562</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="0">
         <v>2022</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="0">
         <v>45</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="0">
         <v>22</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="0">
         <v>0.48888888888888887</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="0">
         <v>0.62726418419187646</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="0">
         <v>0.65615328663255934</v>
       </c>
       <c r="K42" s="1">
@@ -4343,39 +6739,39 @@
       <c r="L42" s="1">
         <v>44779</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="0">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43">
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" s="0">
         <v>69.595366102411475</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0">
         <v>-49.279242989713062</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="0">
         <v>1167.0257478632479</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="0">
         <v>2022</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="0">
         <v>16</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="0">
         <v>7</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="0">
         <v>0.4375</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="0">
         <v>0.68846548458485957</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="0">
         <v>0.67880893518518515</v>
       </c>
       <c r="K43" s="1">
@@ -4384,39 +6780,39 @@
       <c r="L43" s="1">
         <v>44775</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44">
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="0">
         <v>65.639664083333344</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0">
         <v>-38.898814999999999</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="0">
         <v>238.67777777777778</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="0">
         <v>2020</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="0">
         <v>18</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="0">
         <v>17</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="0">
         <v>0.94444444444444442</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="0">
         <v>0.3324555555555555</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="0">
         <v>0.32410769230769232</v>
       </c>
       <c r="K44" s="1">
@@ -4425,39 +6821,39 @@
       <c r="L44" s="1">
         <v>44062</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45">
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="0">
         <v>65.639546667834253</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0">
         <v>-38.898868633516479</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="0">
         <v>238.18381181318682</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="0">
         <v>2021</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="0">
         <v>90</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="0">
         <v>79</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="0">
         <v>0.87777777777777777</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="0">
         <v>0.40202492673992679</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="0">
         <v>0.31018434715821819</v>
       </c>
       <c r="K45" s="1">
@@ -4466,39 +6862,39 @@
       <c r="L45" s="1">
         <v>44362</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="0">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46">
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B46" s="0">
         <v>65.639402702830196</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0">
         <v>-38.898981089622637</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="0">
         <v>236.03915094339621</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="0">
         <v>2022</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="0">
         <v>89</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="0">
         <v>69</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="0">
         <v>0.7752808988764045</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="0">
         <v>0.46906226415094343</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="0">
         <v>0.39750080645161284</v>
       </c>
       <c r="K46" s="1">
@@ -4507,39 +6903,39 @@
       <c r="L46" s="1">
         <v>44731</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47">
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B47" s="0">
         <v>76.399835303533493</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0">
         <v>-68.26682048851255</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="0">
         <v>566.80459658821906</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="0">
         <v>2019</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="0">
         <v>74</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="0">
         <v>66</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="0">
         <v>0.89189189189189189</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="0">
         <v>0.45915615748763705</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="0">
         <v>0.3578766597202081</v>
       </c>
       <c r="K47" s="1">
@@ -4548,39 +6944,39 @@
       <c r="L47" s="1">
         <v>43628</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48">
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B48" s="0">
         <v>76.399839895375067</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0">
         <v>-68.26700505186966</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="0">
         <v>565.18737362577031</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="0">
         <v>2020</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="0">
         <v>52</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="0">
         <v>37</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="0">
         <v>0.71153846153846156</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="0">
         <v>0.56218762154813784</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="0">
         <v>0.46560885548248054</v>
       </c>
       <c r="K48" s="1">
@@ -4589,39 +6985,39 @@
       <c r="L48" s="1">
         <v>44010</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="0">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49">
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B49" s="0">
         <v>76.399845272161144</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0">
         <v>-68.26715399924035</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="0">
         <v>564.33888832232583</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="0">
         <v>2021</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="0">
         <v>46</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="0">
         <v>30</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="0">
         <v>0.65217391304347827</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="0">
         <v>0.59203376718478296</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="0">
         <v>0.53727671336280225</v>
       </c>
       <c r="K49" s="1">
@@ -4630,39 +7026,39 @@
       <c r="L49" s="1">
         <v>44404</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50">
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50" s="0">
         <v>76.399847638297871</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0">
         <v>-68.267268159574471</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="0">
         <v>564.69255319148931</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="0">
         <v>2022</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="0">
         <v>68</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="0">
         <v>50</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="0">
         <v>0.73529411764705888</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="0">
         <v>0.45167659574468083</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="0">
         <v>0.34048225806451621</v>
       </c>
       <c r="K50" s="1">
@@ -4671,39 +7067,39 @@
       <c r="L50" s="1">
         <v>44738</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51">
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B51" s="0">
         <v>76.393036494382017</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0">
         <v>-68.265017685393246</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="0">
         <v>573.93258426966293</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0">
         <v>2022</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="0">
         <v>55</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="0">
         <v>17</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="0">
         <v>0.30909090909090908</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="0">
         <v>0.63592134831460667</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="0">
         <v>0.5430516666666666</v>
       </c>
       <c r="K51" s="1">
@@ -4712,39 +7108,39 @@
       <c r="L51" s="1">
         <v>44739</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="0">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52">
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B52" s="0">
         <v>76.420499000000035</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0">
         <v>-68.143982000000022</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="0">
         <v>760.04921875000002</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0">
         <v>2019</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="0">
         <v>50</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="0">
         <v>1</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="0">
         <v>0.02</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="0">
         <v>0.61466484374999997</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="0">
         <v>0.61461065573770479</v>
       </c>
       <c r="K52" s="1">
@@ -4753,39 +7149,39 @@
       <c r="L52" s="1">
         <v>43662</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="0">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53">
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B53" s="0">
         <v>76.419693238725316</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0">
         <v>-68.147158505328989</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="0">
         <v>760.07810116623295</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0">
         <v>2020</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="0">
         <v>21</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="0">
         <v>2</v>
       </c>
-      <c r="H53">
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="I53">
+      <c r="H53" s="0">
+        <v>0.095238095238095233</v>
+      </c>
+      <c r="I53" s="0">
         <v>0.69837667390302016</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="0">
         <v>0.66637906483347153</v>
       </c>
       <c r="K53" s="1">
@@ -4794,39 +7190,39 @@
       <c r="L53" s="1">
         <v>44061</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="0">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54">
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B54" s="0">
         <v>76.393032392857151</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0">
         <v>-68.265017328571432</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="0">
         <v>573.61642857142863</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0">
         <v>2022</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="0">
         <v>31</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="0">
         <v>9</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="0">
         <v>0.29032258064516131</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="0">
         <v>0.64893214285714285</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="0">
         <v>0.61940624999999994</v>
       </c>
       <c r="K54" s="1">
@@ -4835,39 +7231,39 @@
       <c r="L54" s="1">
         <v>44755</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55">
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B55" s="0">
         <v>76.390245211538456</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0">
         <v>-68.110363352564093</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="0">
         <v>746.6762820512821</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0">
         <v>2022</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="0">
         <v>72</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="0">
         <v>4</v>
       </c>
-      <c r="H55">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="I55">
+      <c r="H55" s="0">
+        <v>0.055555555555555552</v>
+      </c>
+      <c r="I55" s="0">
         <v>0.55509935897435903</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="0">
         <v>0.52051874999999992</v>
       </c>
       <c r="K55" s="1">
@@ -4876,39 +7272,39 @@
       <c r="L55" s="1">
         <v>44726</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="0">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>67</v>
-      </c>
-      <c r="B56">
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B56" s="0">
         <v>72.88664563909407</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0">
         <v>-53.5944811679406</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="0">
         <v>919.73875578405909</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0">
         <v>2019</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="0">
         <v>79</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="0">
         <v>61</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="0">
         <v>0.77215189873417722</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="0">
         <v>0.47722825279378311</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="0">
         <v>0.38334569370687788</v>
       </c>
       <c r="K56" s="1">
@@ -4917,39 +7313,39 @@
       <c r="L56" s="1">
         <v>43625</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="0">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57">
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B57" s="0">
         <v>72.885245784369431</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0">
         <v>-53.599888008032529</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="0">
         <v>903.73780080213896</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0">
         <v>2020</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="0">
         <v>24</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="0">
         <v>4</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="0">
         <v>0.16666666666666666</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="0">
         <v>0.66822206105169346</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="0">
         <v>0.61401364035087713</v>
       </c>
       <c r="K57" s="1">
@@ -4958,39 +7354,39 @@
       <c r="L57" s="1">
         <v>44023</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="0">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58">
+    <row r="58">
+      <c r="A58" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B58" s="0">
         <v>72.885955900000013</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0">
         <v>-53.605352299999993</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="0">
         <v>911.54285714285709</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0">
         <v>2021</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="0">
         <v>14</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="0">
         <v>2</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="0">
         <v>0.14285714285714285</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="0">
         <v>0.65654285714285732</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="0">
         <v>0.62146470588235303</v>
       </c>
       <c r="K58" s="1">
@@ -4999,39 +7395,39 @@
       <c r="L58" s="1">
         <v>44393</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="0">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59">
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B59" s="0">
         <v>72.885619323529411</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0">
         <v>-53.610857470588222</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="0">
         <v>912</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="0">
         <v>2022</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="0">
         <v>14</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="0">
         <v>2</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="0">
         <v>0.14285714285714285</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="0">
         <v>0.68745441176470601</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="0">
         <v>0.6081045454545454</v>
       </c>
       <c r="K59" s="1">
@@ -5040,39 +7436,39 @@
       <c r="L59" s="1">
         <v>44749</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="0">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>71</v>
-      </c>
-      <c r="B60">
+    <row r="60">
+      <c r="A60" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" s="0">
         <v>74.643379895742129</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0">
         <v>-21.462400308774285</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="0">
         <v>865.73931770843535</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="0">
         <v>2022</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="0">
         <v>91</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="0">
         <v>66</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="0">
         <v>0.72527472527472525</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="0">
         <v>0.41604701396098454</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="0">
         <v>0.3205368885594691</v>
       </c>
       <c r="K60" s="1">
@@ -5081,8 +7477,1862 @@
       <c r="L60" s="1">
         <v>44739</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="0">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J57"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="D1:D1048576 F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.93359375" customWidth="true"/>
+    <col min="2" max="2" width="5.15625" customWidth="true"/>
+    <col min="3" max="3" width="15.046875" customWidth="true"/>
+    <col min="5" max="5" width="13.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="15.7109375" customWidth="true"/>
+    <col min="10" max="10" width="10.48828125" customWidth="true"/>
+    <col min="11" max="11" width="15.7109375" customWidth="true"/>
+    <col min="12" max="12" width="10.42578125" customWidth="true"/>
+    <col min="4" max="4" width="14.93359375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="15.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C2" s="0">
+        <v>13</v>
+      </c>
+      <c r="D2" s="0">
+        <v>6</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.5409615017107744</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.49545025316551333</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44762</v>
+      </c>
+      <c r="I2" s="1">
+        <v>44737</v>
+      </c>
+      <c r="J2" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="0">
+        <v>48</v>
+      </c>
+      <c r="D3" s="0">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.48130520011280103</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.45409978935812917</v>
+      </c>
+      <c r="H3" s="1">
+        <v>43627</v>
+      </c>
+      <c r="I3" s="1">
+        <v>43617</v>
+      </c>
+      <c r="J3" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="0">
+        <v>29</v>
+      </c>
+      <c r="D4" s="0">
+        <v>8</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.27586206896551724</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.52686343555527204</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0.52789964863132488</v>
+      </c>
+      <c r="H4" s="1">
+        <v>44006</v>
+      </c>
+      <c r="I4" s="1">
+        <v>44001</v>
+      </c>
+      <c r="J4" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C5" s="0">
+        <v>29</v>
+      </c>
+      <c r="D5" s="0">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.54643180529497781</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.51694558924311074</v>
+      </c>
+      <c r="H5" s="1">
+        <v>44406</v>
+      </c>
+      <c r="I5" s="1">
+        <v>44386</v>
+      </c>
+      <c r="J5" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C6" s="0">
+        <v>27</v>
+      </c>
+      <c r="D6" s="0">
+        <v>2</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.53225887921851678</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0.50290220917094697</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44760</v>
+      </c>
+      <c r="I6" s="1">
+        <v>44731</v>
+      </c>
+      <c r="J6" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="0">
+        <v>2019</v>
+      </c>
+      <c r="C7" s="0">
+        <v>32</v>
+      </c>
+      <c r="D7" s="0">
+        <v>23</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.71875</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.47870948916645478</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0.44874992095923849</v>
+      </c>
+      <c r="H7" s="1">
+        <v>43634</v>
+      </c>
+      <c r="I7" s="1">
+        <v>43626</v>
+      </c>
+      <c r="J7" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="0">
+        <v>2019</v>
+      </c>
+      <c r="C8" s="0">
+        <v>71</v>
+      </c>
+      <c r="D8" s="0">
+        <v>54</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.76056338028169013</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.44290274830157877</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0.38911891651379266</v>
+      </c>
+      <c r="H8" s="1">
+        <v>43628</v>
+      </c>
+      <c r="I8" s="1">
+        <v>43623</v>
+      </c>
+      <c r="J8" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C9" s="0">
+        <v>61</v>
+      </c>
+      <c r="D9" s="0">
+        <v>35</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.57377049180327866</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.46500610292956873</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0.4064410160462395</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44002</v>
+      </c>
+      <c r="I9" s="1">
+        <v>43989</v>
+      </c>
+      <c r="J9" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C10" s="0">
+        <v>67</v>
+      </c>
+      <c r="D10" s="0">
+        <v>30</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.44776119402985076</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0.48880595565050672</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0.44235359588837342</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44368</v>
+      </c>
+      <c r="I10" s="1">
+        <v>44362</v>
+      </c>
+      <c r="J10" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C11" s="0">
+        <v>50</v>
+      </c>
+      <c r="D11" s="0">
+        <v>13</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.26000000000000001</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.49905465722957976</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.47716059249117815</v>
+      </c>
+      <c r="H11" s="1">
+        <v>44756</v>
+      </c>
+      <c r="I11" s="1">
+        <v>44742</v>
+      </c>
+      <c r="J11" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2019</v>
+      </c>
+      <c r="C12" s="0">
+        <v>24</v>
+      </c>
+      <c r="D12" s="0">
+        <v>18</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.38763190268538905</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0.31254466383707313</v>
+      </c>
+      <c r="H12" s="1">
+        <v>43664</v>
+      </c>
+      <c r="I12" s="1">
+        <v>43632</v>
+      </c>
+      <c r="J12" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="0">
+        <v>14</v>
+      </c>
+      <c r="D13" s="0">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.47938476371530986</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.46894458910158054</v>
+      </c>
+      <c r="H13" s="1">
+        <v>44056</v>
+      </c>
+      <c r="I13" s="1">
+        <v>44004</v>
+      </c>
+      <c r="J13" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C14" s="0">
+        <v>30</v>
+      </c>
+      <c r="D14" s="0">
+        <v>15</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.46324925765663394</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0.45639554401832205</v>
+      </c>
+      <c r="H14" s="1">
+        <v>44771</v>
+      </c>
+      <c r="I14" s="1">
+        <v>44736</v>
+      </c>
+      <c r="J14" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="0">
+        <v>2019</v>
+      </c>
+      <c r="C15" s="0">
+        <v>18</v>
+      </c>
+      <c r="D15" s="0">
+        <v>13</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.45489572390666749</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.33965475552649466</v>
+      </c>
+      <c r="H15" s="1">
+        <v>43654</v>
+      </c>
+      <c r="I15" s="1">
+        <v>43621</v>
+      </c>
+      <c r="J15" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C16" s="0">
+        <v>22</v>
+      </c>
+      <c r="D16" s="0">
+        <v>15</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.46192434903414298</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0.43308356466237463</v>
+      </c>
+      <c r="H16" s="1">
+        <v>44038</v>
+      </c>
+      <c r="I16" s="1">
+        <v>44010</v>
+      </c>
+      <c r="J16" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C17" s="0">
+        <v>11</v>
+      </c>
+      <c r="D17" s="0">
+        <v>5</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0.50234377399262586</v>
+      </c>
+      <c r="G17" s="0">
+        <v>0.46276483628200382</v>
+      </c>
+      <c r="H17" s="1">
+        <v>44403</v>
+      </c>
+      <c r="I17" s="1">
+        <v>44369</v>
+      </c>
+      <c r="J17" s="0">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C18" s="0">
+        <v>19</v>
+      </c>
+      <c r="D18" s="0">
+        <v>9</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0.48283723793774846</v>
+      </c>
+      <c r="G18" s="0">
+        <v>0.46352753310730066</v>
+      </c>
+      <c r="H18" s="1">
+        <v>44761</v>
+      </c>
+      <c r="I18" s="1">
+        <v>44761</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="0">
+        <v>2019</v>
+      </c>
+      <c r="C19" s="0">
+        <v>34</v>
+      </c>
+      <c r="D19" s="0">
+        <v>29</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0.39063455096368827</v>
+      </c>
+      <c r="G19" s="0">
+        <v>0.36188393963497917</v>
+      </c>
+      <c r="H19" s="1">
+        <v>43621</v>
+      </c>
+      <c r="I19" s="1">
+        <v>43619</v>
+      </c>
+      <c r="J19" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C20" s="0">
+        <v>27</v>
+      </c>
+      <c r="D20" s="0">
+        <v>23</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0.39910245562462981</v>
+      </c>
+      <c r="G20" s="0">
+        <v>0.3540310208705566</v>
+      </c>
+      <c r="H20" s="1">
+        <v>44003</v>
+      </c>
+      <c r="I20" s="1">
+        <v>44003</v>
+      </c>
+      <c r="J20" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C21" s="0">
+        <v>23</v>
+      </c>
+      <c r="D21" s="0">
+        <v>19</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0.45268246009600666</v>
+      </c>
+      <c r="G21" s="0">
+        <v>0.34322498980890964</v>
+      </c>
+      <c r="H21" s="1">
+        <v>44355</v>
+      </c>
+      <c r="I21" s="1">
+        <v>44348</v>
+      </c>
+      <c r="J21" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C22" s="0">
+        <v>24</v>
+      </c>
+      <c r="D22" s="0">
+        <v>18</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0.37664060909425229</v>
+      </c>
+      <c r="G22" s="0">
+        <v>0.31968126442271938</v>
+      </c>
+      <c r="H22" s="1">
+        <v>44721</v>
+      </c>
+      <c r="I22" s="1">
+        <v>44713</v>
+      </c>
+      <c r="J22" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="0">
+        <v>2019</v>
+      </c>
+      <c r="C23" s="0">
+        <v>27</v>
+      </c>
+      <c r="D23" s="0">
+        <v>6</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0.5187251765822728</v>
+      </c>
+      <c r="G23" s="0">
+        <v>0.50165867001202569</v>
+      </c>
+      <c r="H23" s="1">
+        <v>43653</v>
+      </c>
+      <c r="I23" s="1">
+        <v>43648</v>
+      </c>
+      <c r="J23" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C24" s="0">
+        <v>12</v>
+      </c>
+      <c r="D24" s="0">
+        <v>4</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0.54769540440887221</v>
+      </c>
+      <c r="G24" s="0">
+        <v>0.51978883827328703</v>
+      </c>
+      <c r="H24" s="1">
+        <v>44761</v>
+      </c>
+      <c r="I24" s="1">
+        <v>44747</v>
+      </c>
+      <c r="J24" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C25" s="0">
+        <v>12</v>
+      </c>
+      <c r="D25" s="0">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0.57846367076337335</v>
+      </c>
+      <c r="G25" s="0">
+        <v>0.5222335446284877</v>
+      </c>
+      <c r="H25" s="1">
+        <v>44428</v>
+      </c>
+      <c r="I25" s="1">
+        <v>44393</v>
+      </c>
+      <c r="J25" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C26" s="0">
+        <v>14</v>
+      </c>
+      <c r="D26" s="0">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0.071428571428571425</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0.56053047374784948</v>
+      </c>
+      <c r="G26" s="0">
+        <v>0.54396354243010303</v>
+      </c>
+      <c r="H26" s="1">
+        <v>44823</v>
+      </c>
+      <c r="I26" s="1">
+        <v>44813</v>
+      </c>
+      <c r="J26" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="0">
+        <v>2019</v>
+      </c>
+      <c r="C27" s="0">
+        <v>30</v>
+      </c>
+      <c r="D27" s="0">
+        <v>30</v>
+      </c>
+      <c r="E27" s="0">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0.24682539576618512</v>
+      </c>
+      <c r="G27" s="0">
+        <v>0.21572309900371153</v>
+      </c>
+      <c r="H27" s="1">
+        <v>43617</v>
+      </c>
+      <c r="I27" s="1">
+        <v>43617</v>
+      </c>
+      <c r="J27" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C28" s="0">
+        <v>15</v>
+      </c>
+      <c r="D28" s="0">
+        <v>14</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0.27531195445562873</v>
+      </c>
+      <c r="G28" s="0">
+        <v>0.22499881797786242</v>
+      </c>
+      <c r="H28" s="1">
+        <v>44005</v>
+      </c>
+      <c r="I28" s="1">
+        <v>44005</v>
+      </c>
+      <c r="J28" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B29" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C29" s="0">
+        <v>20</v>
+      </c>
+      <c r="D29" s="0">
+        <v>20</v>
+      </c>
+      <c r="E29" s="0">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0">
+        <v>0.27752434810536164</v>
+      </c>
+      <c r="G29" s="0">
+        <v>0.29529212233016949</v>
+      </c>
+      <c r="H29" s="1">
+        <v>44355</v>
+      </c>
+      <c r="I29" s="1">
+        <v>44355</v>
+      </c>
+      <c r="J29" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C30" s="0">
+        <v>35</v>
+      </c>
+      <c r="D30" s="0">
+        <v>32</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0.91428571428571426</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0.25865018601334522</v>
+      </c>
+      <c r="G30" s="0">
+        <v>0.25887709229233791</v>
+      </c>
+      <c r="H30" s="1">
+        <v>44715</v>
+      </c>
+      <c r="I30" s="1">
+        <v>44715</v>
+      </c>
+      <c r="J30" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="0">
+        <v>2019</v>
+      </c>
+      <c r="C31" s="0">
+        <v>26</v>
+      </c>
+      <c r="D31" s="0">
+        <v>18</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="F31" s="0">
+        <v>0.39661016072427602</v>
+      </c>
+      <c r="G31" s="0">
+        <v>0.30706843979875559</v>
+      </c>
+      <c r="H31" s="1">
+        <v>43660</v>
+      </c>
+      <c r="I31" s="1">
+        <v>43632</v>
+      </c>
+      <c r="J31" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B32" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C32" s="0">
+        <v>13</v>
+      </c>
+      <c r="D32" s="0">
+        <v>11</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="F32" s="0">
+        <v>0.35878510717254802</v>
+      </c>
+      <c r="G32" s="0">
+        <v>0.34143407128450776</v>
+      </c>
+      <c r="H32" s="1">
+        <v>44023</v>
+      </c>
+      <c r="I32" s="1">
+        <v>44015</v>
+      </c>
+      <c r="J32" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C33" s="0">
+        <v>23</v>
+      </c>
+      <c r="D33" s="0">
+        <v>15</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="F33" s="0">
+        <v>0.41565709094655606</v>
+      </c>
+      <c r="G33" s="0">
+        <v>0.36374840723795782</v>
+      </c>
+      <c r="H33" s="1">
+        <v>44392</v>
+      </c>
+      <c r="I33" s="1">
+        <v>44392</v>
+      </c>
+      <c r="J33" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="0">
+        <v>26</v>
+      </c>
+      <c r="D34" s="0">
+        <v>12</v>
+      </c>
+      <c r="E34" s="0">
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="F34" s="0">
+        <v>0.4695284923146702</v>
+      </c>
+      <c r="G34" s="0">
+        <v>0.4730243161559558</v>
+      </c>
+      <c r="H34" s="1">
+        <v>44772</v>
+      </c>
+      <c r="I34" s="1">
+        <v>44749</v>
+      </c>
+      <c r="J34" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="0">
+        <v>2019</v>
+      </c>
+      <c r="C35" s="0">
+        <v>20</v>
+      </c>
+      <c r="D35" s="0">
+        <v>13</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0.65000000000000002</v>
+      </c>
+      <c r="F35" s="0">
+        <v>0.4160753667267536</v>
+      </c>
+      <c r="G35" s="0">
+        <v>0.39715082613582098</v>
+      </c>
+      <c r="H35" s="1">
+        <v>43678</v>
+      </c>
+      <c r="I35" s="1">
+        <v>43637</v>
+      </c>
+      <c r="J35" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B36" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C36" s="0">
+        <v>9</v>
+      </c>
+      <c r="D36" s="0">
+        <v>4</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F36" s="0">
+        <v>0.44579199955292331</v>
+      </c>
+      <c r="G36" s="0">
+        <v>0.42154555874615918</v>
+      </c>
+      <c r="H36" s="1">
+        <v>44060</v>
+      </c>
+      <c r="I36" s="1">
+        <v>44030</v>
+      </c>
+      <c r="J36" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C37" s="0">
+        <v>18</v>
+      </c>
+      <c r="D37" s="0">
+        <v>6</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F37" s="0">
+        <v>0.54770190148124664</v>
+      </c>
+      <c r="G37" s="0">
+        <v>0.56520252589531972</v>
+      </c>
+      <c r="H37" s="1">
+        <v>44430</v>
+      </c>
+      <c r="I37" s="1">
+        <v>44392</v>
+      </c>
+      <c r="J37" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B38" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C38" s="0">
+        <v>17</v>
+      </c>
+      <c r="D38" s="0">
+        <v>9</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="F38" s="0">
+        <v>0.49211546893913166</v>
+      </c>
+      <c r="G38" s="0">
+        <v>0.52095648082660317</v>
+      </c>
+      <c r="H38" s="1">
+        <v>44787</v>
+      </c>
+      <c r="I38" s="1">
+        <v>44719</v>
+      </c>
+      <c r="J38" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C39" s="0">
+        <v>9</v>
+      </c>
+      <c r="D39" s="0">
+        <v>4</v>
+      </c>
+      <c r="E39" s="0">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F39" s="0">
+        <v>0.4638630968366565</v>
+      </c>
+      <c r="G39" s="0">
+        <v>0.41843466646479721</v>
+      </c>
+      <c r="H39" s="1">
+        <v>44060</v>
+      </c>
+      <c r="I39" s="1">
+        <v>44030</v>
+      </c>
+      <c r="J39" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B40" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C40" s="0">
+        <v>18</v>
+      </c>
+      <c r="D40" s="0">
+        <v>6</v>
+      </c>
+      <c r="E40" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F40" s="0">
+        <v>0.54770190148124664</v>
+      </c>
+      <c r="G40" s="0">
+        <v>0.56520252589531972</v>
+      </c>
+      <c r="H40" s="1">
+        <v>44430</v>
+      </c>
+      <c r="I40" s="1">
+        <v>44392</v>
+      </c>
+      <c r="J40" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B41" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C41" s="0">
+        <v>17</v>
+      </c>
+      <c r="D41" s="0">
+        <v>9</v>
+      </c>
+      <c r="E41" s="0">
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="F41" s="0">
+        <v>0.49211546893913166</v>
+      </c>
+      <c r="G41" s="0">
+        <v>0.52095648082660317</v>
+      </c>
+      <c r="H41" s="1">
+        <v>44787</v>
+      </c>
+      <c r="I41" s="1">
+        <v>44719</v>
+      </c>
+      <c r="J41" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C42" s="0">
+        <v>6</v>
+      </c>
+      <c r="D42" s="0">
+        <v>1</v>
+      </c>
+      <c r="E42" s="0">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F42" s="0">
+        <v>0.57154980468470618</v>
+      </c>
+      <c r="G42" s="0">
+        <v>0.59411722248544308</v>
+      </c>
+      <c r="H42" s="1">
+        <v>44808</v>
+      </c>
+      <c r="I42" s="1">
+        <v>44808</v>
+      </c>
+      <c r="J42" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B43" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C43" s="0">
+        <v>28</v>
+      </c>
+      <c r="D43" s="0">
+        <v>27</v>
+      </c>
+      <c r="E43" s="0">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="F43" s="0">
+        <v>0.33990156813644706</v>
+      </c>
+      <c r="G43" s="0">
+        <v>0.30891992717781541</v>
+      </c>
+      <c r="H43" s="1">
+        <v>44004</v>
+      </c>
+      <c r="I43" s="1">
+        <v>44004</v>
+      </c>
+      <c r="J43" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B44" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="0">
+        <v>40</v>
+      </c>
+      <c r="D44" s="0">
+        <v>36</v>
+      </c>
+      <c r="E44" s="0">
+        <v>0.90000000000000002</v>
+      </c>
+      <c r="F44" s="0">
+        <v>0.34334871102631415</v>
+      </c>
+      <c r="G44" s="0">
+        <v>0.29348488755357</v>
+      </c>
+      <c r="H44" s="1">
+        <v>44362</v>
+      </c>
+      <c r="I44" s="1">
+        <v>44349</v>
+      </c>
+      <c r="J44" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B45" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="0">
+        <v>43</v>
+      </c>
+      <c r="D45" s="0">
+        <v>37</v>
+      </c>
+      <c r="E45" s="0">
+        <v>0.86046511627906974</v>
+      </c>
+      <c r="F45" s="0">
+        <v>0.33598907301196063</v>
+      </c>
+      <c r="G45" s="0">
+        <v>0.30065134168498675</v>
+      </c>
+      <c r="H45" s="1">
+        <v>44722</v>
+      </c>
+      <c r="I45" s="1">
+        <v>44714</v>
+      </c>
+      <c r="J45" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B46" s="0">
+        <v>2019</v>
+      </c>
+      <c r="C46" s="0">
+        <v>59</v>
+      </c>
+      <c r="D46" s="0">
+        <v>40</v>
+      </c>
+      <c r="E46" s="0">
+        <v>0.67796610169491522</v>
+      </c>
+      <c r="F46" s="0">
+        <v>0.41392221707978599</v>
+      </c>
+      <c r="G46" s="0">
+        <v>0.36056218256296807</v>
+      </c>
+      <c r="H46" s="1">
+        <v>43630</v>
+      </c>
+      <c r="I46" s="1">
+        <v>43628</v>
+      </c>
+      <c r="J46" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B47" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C47" s="0">
+        <v>33</v>
+      </c>
+      <c r="D47" s="0">
+        <v>19</v>
+      </c>
+      <c r="E47" s="0">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="F47" s="0">
+        <v>0.48351146108973098</v>
+      </c>
+      <c r="G47" s="0">
+        <v>0.45222607981484814</v>
+      </c>
+      <c r="H47" s="1">
+        <v>44021</v>
+      </c>
+      <c r="I47" s="1">
+        <v>44009</v>
+      </c>
+      <c r="J47" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="0">
+        <v>31</v>
+      </c>
+      <c r="D48" s="0">
+        <v>11</v>
+      </c>
+      <c r="E48" s="0">
+        <v>0.35483870967741937</v>
+      </c>
+      <c r="F48" s="0">
+        <v>0.56023800779741917</v>
+      </c>
+      <c r="G48" s="0">
+        <v>0.4991686192153022</v>
+      </c>
+      <c r="H48" s="1">
+        <v>44412</v>
+      </c>
+      <c r="I48" s="1">
+        <v>44388</v>
+      </c>
+      <c r="J48" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B49" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C49" s="0">
+        <v>40</v>
+      </c>
+      <c r="D49" s="0">
+        <v>27</v>
+      </c>
+      <c r="E49" s="0">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="F49" s="0">
+        <v>0.45164802850429236</v>
+      </c>
+      <c r="G49" s="0">
+        <v>0.39829306044421392</v>
+      </c>
+      <c r="H49" s="1">
+        <v>44749</v>
+      </c>
+      <c r="I49" s="1">
+        <v>44739</v>
+      </c>
+      <c r="J49" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C50" s="0">
+        <v>43</v>
+      </c>
+      <c r="D50" s="0">
+        <v>20</v>
+      </c>
+      <c r="E50" s="0">
+        <v>0.46511627906976744</v>
+      </c>
+      <c r="F50" s="0">
+        <v>0.51063453785873159</v>
+      </c>
+      <c r="G50" s="0">
+        <v>0.4517438972158358</v>
+      </c>
+      <c r="H50" s="1">
+        <v>44749</v>
+      </c>
+      <c r="I50" s="1">
+        <v>44739</v>
+      </c>
+      <c r="J50" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" s="0">
+        <v>2019</v>
+      </c>
+      <c r="C51" s="0">
+        <v>47</v>
+      </c>
+      <c r="D51" s="0">
+        <v>1</v>
+      </c>
+      <c r="E51" s="0">
+        <v>0.021276595744680851</v>
+      </c>
+      <c r="F51" s="0">
+        <v>0.54742814052012301</v>
+      </c>
+      <c r="G51" s="0">
+        <v>0.50899016421600463</v>
+      </c>
+      <c r="H51" s="1">
+        <v>43688</v>
+      </c>
+      <c r="I51" s="1">
+        <v>43655</v>
+      </c>
+      <c r="J51" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B52" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C52" s="0">
+        <v>43</v>
+      </c>
+      <c r="D52" s="0">
+        <v>20</v>
+      </c>
+      <c r="E52" s="0">
+        <v>0.46511627906976744</v>
+      </c>
+      <c r="F52" s="0">
+        <v>0.51063453785873159</v>
+      </c>
+      <c r="G52" s="0">
+        <v>0.4517438972158358</v>
+      </c>
+      <c r="H52" s="1">
+        <v>44749</v>
+      </c>
+      <c r="I52" s="1">
+        <v>44739</v>
+      </c>
+      <c r="J52" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B53" s="0">
+        <v>2019</v>
+      </c>
+      <c r="C53" s="0">
+        <v>61</v>
+      </c>
+      <c r="D53" s="0">
+        <v>25</v>
+      </c>
+      <c r="E53" s="0">
+        <v>0.4098360655737705</v>
+      </c>
+      <c r="F53" s="0">
+        <v>0.49049912349141184</v>
+      </c>
+      <c r="G53" s="0">
+        <v>0.4513380178036851</v>
+      </c>
+      <c r="H53" s="1">
+        <v>43627</v>
+      </c>
+      <c r="I53" s="1">
+        <v>43623</v>
+      </c>
+      <c r="J53" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B54" s="0">
+        <v>2020</v>
+      </c>
+      <c r="C54" s="0">
+        <v>26</v>
+      </c>
+      <c r="D54" s="0">
+        <v>2</v>
+      </c>
+      <c r="E54" s="0">
+        <v>0.076923076923076927</v>
+      </c>
+      <c r="F54" s="0">
+        <v>0.5958687093779691</v>
+      </c>
+      <c r="G54" s="0">
+        <v>0.54610027412901763</v>
+      </c>
+      <c r="H54" s="1">
+        <v>44035</v>
+      </c>
+      <c r="I54" s="1">
+        <v>44009</v>
+      </c>
+      <c r="J54" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B55" s="0">
+        <v>2021</v>
+      </c>
+      <c r="C55" s="0">
+        <v>25</v>
+      </c>
+      <c r="D55" s="0">
+        <v>3</v>
+      </c>
+      <c r="E55" s="0">
+        <v>0.12</v>
+      </c>
+      <c r="F55" s="0">
+        <v>0.59490206205001128</v>
+      </c>
+      <c r="G55" s="0">
+        <v>0.53461648630572978</v>
+      </c>
+      <c r="H55" s="1">
+        <v>44405</v>
+      </c>
+      <c r="I55" s="1">
+        <v>44385</v>
+      </c>
+      <c r="J55" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C56" s="0">
+        <v>29</v>
+      </c>
+      <c r="D56" s="0">
+        <v>1</v>
+      </c>
+      <c r="E56" s="0">
+        <v>0.034482758620689655</v>
+      </c>
+      <c r="F56" s="0">
+        <v>0.56701908167468706</v>
+      </c>
+      <c r="G56" s="0">
+        <v>0.55661940707104895</v>
+      </c>
+      <c r="H56" s="1">
+        <v>44786</v>
+      </c>
+      <c r="I56" s="1">
+        <v>44786</v>
+      </c>
+      <c r="J56" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B57" s="0">
+        <v>2022</v>
+      </c>
+      <c r="C57" s="0">
+        <v>49</v>
+      </c>
+      <c r="D57" s="0">
+        <v>29</v>
+      </c>
+      <c r="E57" s="0">
+        <v>0.59183673469387754</v>
+      </c>
+      <c r="F57" s="0">
+        <v>0.46078444373209243</v>
+      </c>
+      <c r="G57" s="0">
+        <v>0.37646937959243854</v>
+      </c>
+      <c r="H57" s="1">
+        <v>44741</v>
+      </c>
+      <c r="I57" s="1">
+        <v>44715</v>
+      </c>
+      <c r="J57" s="0">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
